--- a/DateBase/orders/Dang Nguyen_2025-11-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -773,10 +773,94 @@
       <c r="A41" t="str">
         <v>6</v>
       </c>
+      <c r="C41" t="str">
+        <v>808_百合黑贝壳_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>727_绿剑叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>727_绿剑叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">463_玉兰枝_magnolia flower
+white/purple_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>112_绣球青花瓷_Hydrangea Blue&amp;White Porcelain_Hydrangea L._1stem</v>
+      </c>
+      <c r="F46" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F47" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>72_泽娜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -834,7 +918,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05561550851023558201020105101055151560504561060311551052010615100</v>
+        <v>05561550851023558201020105101055151560504561060311551052010615103865105040910100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-5.xlsx
@@ -857,6 +857,9 @@
       <c r="C51" t="str">
         <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
       </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -918,7 +921,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05561550851023558201020105101055151560504561060311551052010615103865105040910100</v>
+        <v>05561550851023558201020105101055151560504561060311551052010615103865105040910101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -861,9 +861,426 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>7</v>
+      </c>
+      <c r="C52" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>8</v>
+      </c>
+      <c r="C56" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F59" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>9</v>
+      </c>
+      <c r="C60" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F63" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>10</v>
+      </c>
+      <c r="C64" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F69" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>11</v>
+      </c>
+      <c r="C70" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F71" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>424_鼠尾白色_veronica white_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>12</v>
+      </c>
+      <c r="C77" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>427_新娘_Blushing Bride_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>492_细米花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>13</v>
+      </c>
+      <c r="C81" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F84" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F86" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F87" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>14</v>
+      </c>
+      <c r="C88" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F88" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>652_大丽花 红桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F89" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>15</v>
+      </c>
+      <c r="C90" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F90" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F91" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F92" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>16</v>
+      </c>
+      <c r="C93" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F93" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F94" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F95" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F96" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>677_洋牡丹大香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F97" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>17</v>
+      </c>
+      <c r="C98" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F98" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F99" t="str">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L99"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -921,7 +1338,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05561550851023558201020105101055151560504561060311551052010615103865105040910101</v>
+        <v>0556155085102355820102010510105515156050456106031155105201061510386510504091010118252108914151210141124932552410156655171551055126525514252110520588101525</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-5.xlsx
@@ -1340,6 +1340,9 @@
       <c r="G2" t="str">
         <v>0556155085102355820102010510105515156050456106031155105201061510386510504091010118252108914151210141124932552410156655171551055126525514252110520588101525</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
